--- a/records_maps/Capstone Records/qzap-records-2019.xlsx
+++ b/records_maps/Capstone Records/qzap-records-2019.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10" conformance="strict">
+<workbook xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2" conformance="strict">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11208"/>
   <workbookPr dateCompatibility="0" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jfreedma/Documents/GitHub/zinecat.org/records_maps/Capstone Records/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C2692407-1DB6-FB49-8DC7-76A12150E410}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{47163F2A-B9CB-DF40-B67A-F2EBD8CD5D84}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1700" yWindow="960" windowWidth="26720" windowHeight="16540"/>
+    <workbookView xWindow="1700" yWindow="960" windowWidth="26720" windowHeight="16540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="qzap-data-export (1)" sheetId="1" r:id="rId1"/>
@@ -6737,7 +6737,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -7574,12 +7574,18 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G574"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A550" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="7" bestFit="1" customWidth="1"/>
+    <col min="2" max="7" width="21.83203125" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
@@ -18858,7 +18864,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="493" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="493" spans="1:7" ht="272" x14ac:dyDescent="0.2">
       <c r="A493" t="s">
         <v>1917</v>
       </c>
@@ -20508,7 +20514,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="565" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="565" spans="1:7" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A565" t="s">
         <v>2184</v>
       </c>
